--- a/others/openxlsx_workbook.xlsx
+++ b/others/openxlsx_workbook.xlsx
@@ -10,6 +10,1160 @@
     <sheet name="starwars_data" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="383">
+  <si>
+    <t xml:space="preserve">cut</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n</t>
+  </si>
+  <si>
+    <t xml:space="preserve">preco_medio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">preco_total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fair</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Good</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Very Good</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Premium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ideal</t>
+  </si>
+  <si>
+    <t xml:space="preserve"/>
+  </si>
+  <si>
+    <t xml:space="preserve">name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">height</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hair_color</t>
+  </si>
+  <si>
+    <t xml:space="preserve">skin_color</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eye_color</t>
+  </si>
+  <si>
+    <t xml:space="preserve">birth_year</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gender</t>
+  </si>
+  <si>
+    <t xml:space="preserve">homeworld</t>
+  </si>
+  <si>
+    <t xml:space="preserve">species</t>
+  </si>
+  <si>
+    <t xml:space="preserve">films</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vehicles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">starships</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luke Skywalker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">blond</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fair</t>
+  </si>
+  <si>
+    <t xml:space="preserve">blue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">male</t>
+  </si>
+  <si>
+    <t xml:space="preserve">masculine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tatooine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Human</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Empire Strikes Back, Revenge of the Sith, Return of the Jedi, A New Hope, The Force Awakens</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snowspeeder, Imperial Speeder Bike</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X-wing, Imperial shuttle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C-3PO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gold</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yellow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">none</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Droid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Empire Strikes Back, Attack of the Clones, The Phantom Menace, Revenge of the Sith, Return of the Jedi, A New Hope</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R2-D2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">white, blue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">red</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Naboo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Empire Strikes Back, Attack of the Clones, The Phantom Menace, Revenge of the Sith, Return of the Jedi, A New Hope, The Force Awakens</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Darth Vader</t>
+  </si>
+  <si>
+    <t xml:space="preserve">white</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Empire Strikes Back, Revenge of the Sith, Return of the Jedi, A New Hope</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TIE Advanced x1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leia Organa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">brown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">light</t>
+  </si>
+  <si>
+    <t xml:space="preserve">female</t>
+  </si>
+  <si>
+    <t xml:space="preserve">feminine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alderaan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Imperial Speeder Bike</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Owen Lars</t>
+  </si>
+  <si>
+    <t xml:space="preserve">brown, grey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attack of the Clones, Revenge of the Sith, A New Hope</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beru Whitesun lars</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R5-D4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">white, red</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A New Hope</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Biggs Darklighter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">black</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X-wing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Obi-Wan Kenobi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">auburn, white</t>
+  </si>
+  <si>
+    <t xml:space="preserve">blue-gray</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stewjon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tribubble bongo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jedi starfighter, Trade Federation cruiser, Naboo star skiff, Jedi Interceptor, Belbullab-22 starfighter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anakin Skywalker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attack of the Clones, The Phantom Menace, Revenge of the Sith</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zephyr-G swoop bike, XJ-6 airspeeder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trade Federation cruiser, Jedi Interceptor, Naboo fighter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wilhuff Tarkin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">auburn, grey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eriadu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Revenge of the Sith, A New Hope</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chewbacca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unknown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kashyyyk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wookiee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AT-ST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Millennium Falcon, Imperial shuttle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Han Solo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Corellia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Empire Strikes Back, Return of the Jedi, A New Hope, The Force Awakens</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Greedo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">green</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rodia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rodian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jabba Desilijic Tiure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">green-tan, brown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">orange</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hermaphroditic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nal Hutta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hutt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Phantom Menace, Return of the Jedi, A New Hope</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wedge Antilles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hazel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Empire Strikes Back, Return of the Jedi, A New Hope</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snowspeeder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jek Tono Porkins</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bestine IV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yoda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yoda's species</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Empire Strikes Back, Attack of the Clones, The Phantom Menace, Revenge of the Sith, Return of the Jedi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Palpatine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">grey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Boba Fett</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kamino</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Empire Strikes Back, Attack of the Clones, Return of the Jedi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Slave 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IG-88</t>
+  </si>
+  <si>
+    <t xml:space="preserve">metal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Empire Strikes Back</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bossk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trandosha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trandoshan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lando Calrissian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dark</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Socorro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Empire Strikes Back, Return of the Jedi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Millennium Falcon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lobot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bespin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ackbar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">brown mottle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mon Cala</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mon Calamari</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Return of the Jedi, The Force Awakens</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mon Mothma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">auburn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chandrila</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Return of the Jedi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arvel Crynyd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A-wing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wicket Systri Warrick</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Endor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ewok</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nien Nunb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sullust</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sullustan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qui-Gon Jinn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Phantom Menace</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nute Gunray</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mottled green</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cato Neimoidia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neimodian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finis Valorum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coruscant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jar Jar Binks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gungan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attack of the Clones, The Phantom Menace</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Roos Tarpals</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rugor Nass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ric Olié</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Naboo Royal Starship</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Watto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">blue, grey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Toydaria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Toydarian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sebulba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">grey, red</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Malastare</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dug</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quarsh Panaka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shmi Skywalker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Darth Maul</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dathomir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zabrak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sith speeder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scimitar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bib Fortuna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pink</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ryloth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Twi'lek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ayla Secura</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dud Bolt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vulpter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vulptereen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gasgano</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Troiken</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xexto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ben Quadinaros</t>
+  </si>
+  <si>
+    <t xml:space="preserve">grey, green, yellow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tund</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Toong</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mace Windu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Haruun Kal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ki-Adi-Mundi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cerea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cerean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kit Fisto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Glee Anselm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nautolan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eeth Koth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iridonia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Phantom Menace, Revenge of the Sith</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adi Gallia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tholothian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saesee Tiin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iktotch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iktotchi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yarael Poof</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quermia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quermian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plo Koon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dorin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kel Dor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jedi starfighter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mas Amedda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Champala</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chagrian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gregar Typho</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attack of the Clones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Naboo fighter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cordé</t>
+  </si>
+  <si>
+    <t xml:space="preserve">59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cliegg Lars</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poggle the Lesser</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Geonosis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Geonosian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attack of the Clones, Revenge of the Sith</t>
+  </si>
+  <si>
+    <t xml:space="preserve">61</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luminara Unduli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mirial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mirialan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">62</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Barriss Offee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dormé</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dooku</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Serenno</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flitknot speeder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bail Prestor Organa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">66</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jango Fett</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Concord Dawn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">67</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zam Wesell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">blonde</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fair, green, yellow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zolan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clawdite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Koro-2 Exodrive airspeeder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dexter Jettster</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ojom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Besalisk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">69</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lama Su</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kaminoan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">70</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taun We</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jocasta Nu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ratts Tyerell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">grey, blue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aleen Minor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aleena</t>
+  </si>
+  <si>
+    <t xml:space="preserve">73</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R4-P17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">silver, red</t>
+  </si>
+  <si>
+    <t xml:space="preserve">red, blue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">74</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wat Tambor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">green, grey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Skako</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Skakoan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">San Hill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Muunilinst</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Muun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shaak Ti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">red, blue, white</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shili</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Togruta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">77</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grievous</t>
+  </si>
+  <si>
+    <t xml:space="preserve">brown, white</t>
+  </si>
+  <si>
+    <t xml:space="preserve">green, yellow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kalee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kaleesh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Revenge of the Sith</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tsmeu-6 personal wheel bike</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Belbullab-22 starfighter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">78</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tarfful</t>
+  </si>
+  <si>
+    <t xml:space="preserve">79</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Raymus Antilles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sly Moore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Umbara</t>
+  </si>
+  <si>
+    <t xml:space="preserve">81</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tion Medon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Utapau</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pau'an</t>
+  </si>
+  <si>
+    <t xml:space="preserve">82</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Force Awakens</t>
+  </si>
+  <si>
+    <t xml:space="preserve">83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">84</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poe Dameron</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T-70 X-wing fighter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">85</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BB8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">86</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Captain Phasma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">87</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Padmé Amidala</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H-type Nubian yacht, Naboo star skiff, Naboo fighter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Preço Alvo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diferença de Preço</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -338,7 +1492,113 @@
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>381</v>
+      </c>
+      <c r="H1" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1610</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4358.75776397516</v>
+      </c>
+      <c r="E2" t="n">
+        <v>7017600</v>
+      </c>
+      <c r="H2" t="str">
+        <f>G2-E2</f>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="n">
+        <v>4906</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3928.86445169181</v>
+      </c>
+      <c r="E3" t="n">
+        <v>19275009</v>
+      </c>
+      <c r="H3" t="str">
+        <f>G3-E3</f>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="n">
+        <v>12082</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3981.75989074657</v>
+      </c>
+      <c r="E4" t="n">
+        <v>48107623</v>
+      </c>
+      <c r="H4" t="str">
+        <f>G4-E4</f>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="n">
+        <v>13791</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4584.25770429991</v>
+      </c>
+      <c r="E5" t="n">
+        <v>63221498</v>
+      </c>
+      <c r="H5" t="str">
+        <f>G5-E5</f>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="n">
+        <v>21551</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3457.5419702102</v>
+      </c>
+      <c r="E6" t="n">
+        <v>74513487</v>
+      </c>
+      <c r="H6" t="str">
+        <f>G6-E6</f>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
@@ -351,7 +1611,3934 @@
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" t="n">
+        <v>172</v>
+      </c>
+      <c r="D2" t="n">
+        <v>77</v>
+      </c>
+      <c r="E2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" t="n">
+        <v>19</v>
+      </c>
+      <c r="I2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" t="n">
+        <v>167</v>
+      </c>
+      <c r="D3" t="n">
+        <v>75</v>
+      </c>
+      <c r="E3"/>
+      <c r="F3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H3" t="n">
+        <v>112</v>
+      </c>
+      <c r="I3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L3" t="s">
+        <v>41</v>
+      </c>
+      <c r="M3" t="s">
+        <v>42</v>
+      </c>
+      <c r="N3" t="s">
+        <v>9</v>
+      </c>
+      <c r="O3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" t="n">
+        <v>96</v>
+      </c>
+      <c r="D4" t="n">
+        <v>32</v>
+      </c>
+      <c r="E4"/>
+      <c r="F4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="n">
+        <v>33</v>
+      </c>
+      <c r="I4" t="s">
+        <v>40</v>
+      </c>
+      <c r="J4" t="s">
+        <v>30</v>
+      </c>
+      <c r="K4" t="s">
+        <v>47</v>
+      </c>
+      <c r="L4" t="s">
+        <v>41</v>
+      </c>
+      <c r="M4" t="s">
+        <v>48</v>
+      </c>
+      <c r="N4" t="s">
+        <v>9</v>
+      </c>
+      <c r="O4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" t="n">
+        <v>202</v>
+      </c>
+      <c r="D5" t="n">
+        <v>136</v>
+      </c>
+      <c r="E5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" t="n">
+        <v>41.9</v>
+      </c>
+      <c r="I5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K5" t="s">
+        <v>31</v>
+      </c>
+      <c r="L5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M5" t="s">
+        <v>52</v>
+      </c>
+      <c r="N5" t="s">
+        <v>9</v>
+      </c>
+      <c r="O5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" t="n">
+        <v>150</v>
+      </c>
+      <c r="D6" t="n">
+        <v>49</v>
+      </c>
+      <c r="E6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H6" t="n">
+        <v>19</v>
+      </c>
+      <c r="I6" t="s">
+        <v>58</v>
+      </c>
+      <c r="J6" t="s">
+        <v>59</v>
+      </c>
+      <c r="K6" t="s">
+        <v>60</v>
+      </c>
+      <c r="L6" t="s">
+        <v>32</v>
+      </c>
+      <c r="M6" t="s">
+        <v>33</v>
+      </c>
+      <c r="N6" t="s">
+        <v>61</v>
+      </c>
+      <c r="O6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" t="n">
+        <v>178</v>
+      </c>
+      <c r="D7" t="n">
+        <v>120</v>
+      </c>
+      <c r="E7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" t="n">
+        <v>52</v>
+      </c>
+      <c r="I7" t="s">
+        <v>29</v>
+      </c>
+      <c r="J7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L7" t="s">
+        <v>32</v>
+      </c>
+      <c r="M7" t="s">
+        <v>65</v>
+      </c>
+      <c r="N7" t="s">
+        <v>9</v>
+      </c>
+      <c r="O7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>66</v>
+      </c>
+      <c r="B8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" t="n">
+        <v>165</v>
+      </c>
+      <c r="D8" t="n">
+        <v>75</v>
+      </c>
+      <c r="E8" t="s">
+        <v>56</v>
+      </c>
+      <c r="F8" t="s">
+        <v>57</v>
+      </c>
+      <c r="G8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" t="n">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>58</v>
+      </c>
+      <c r="J8" t="s">
+        <v>59</v>
+      </c>
+      <c r="K8" t="s">
+        <v>31</v>
+      </c>
+      <c r="L8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M8" t="s">
+        <v>65</v>
+      </c>
+      <c r="N8" t="s">
+        <v>9</v>
+      </c>
+      <c r="O8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" t="n">
+        <v>97</v>
+      </c>
+      <c r="D9" t="n">
+        <v>32</v>
+      </c>
+      <c r="E9"/>
+      <c r="F9" t="s">
+        <v>70</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9"/>
+      <c r="I9" t="s">
+        <v>40</v>
+      </c>
+      <c r="J9" t="s">
+        <v>30</v>
+      </c>
+      <c r="K9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L9" t="s">
+        <v>41</v>
+      </c>
+      <c r="M9" t="s">
+        <v>71</v>
+      </c>
+      <c r="N9" t="s">
+        <v>9</v>
+      </c>
+      <c r="O9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" t="n">
+        <v>183</v>
+      </c>
+      <c r="D10" t="n">
+        <v>84</v>
+      </c>
+      <c r="E10" t="s">
+        <v>74</v>
+      </c>
+      <c r="F10" t="s">
+        <v>57</v>
+      </c>
+      <c r="G10" t="s">
+        <v>56</v>
+      </c>
+      <c r="H10" t="n">
+        <v>24</v>
+      </c>
+      <c r="I10" t="s">
+        <v>29</v>
+      </c>
+      <c r="J10" t="s">
+        <v>30</v>
+      </c>
+      <c r="K10" t="s">
+        <v>31</v>
+      </c>
+      <c r="L10" t="s">
+        <v>32</v>
+      </c>
+      <c r="M10" t="s">
+        <v>71</v>
+      </c>
+      <c r="N10" t="s">
+        <v>9</v>
+      </c>
+      <c r="O10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>76</v>
+      </c>
+      <c r="B11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C11" t="n">
+        <v>182</v>
+      </c>
+      <c r="D11" t="n">
+        <v>77</v>
+      </c>
+      <c r="E11" t="s">
+        <v>78</v>
+      </c>
+      <c r="F11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" t="s">
+        <v>79</v>
+      </c>
+      <c r="H11" t="n">
+        <v>57</v>
+      </c>
+      <c r="I11" t="s">
+        <v>29</v>
+      </c>
+      <c r="J11" t="s">
+        <v>30</v>
+      </c>
+      <c r="K11" t="s">
+        <v>80</v>
+      </c>
+      <c r="L11" t="s">
+        <v>32</v>
+      </c>
+      <c r="M11" t="s">
+        <v>42</v>
+      </c>
+      <c r="N11" t="s">
+        <v>81</v>
+      </c>
+      <c r="O11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>83</v>
+      </c>
+      <c r="B12" t="s">
+        <v>84</v>
+      </c>
+      <c r="C12" t="n">
+        <v>188</v>
+      </c>
+      <c r="D12" t="n">
+        <v>84</v>
+      </c>
+      <c r="E12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" t="s">
+        <v>28</v>
+      </c>
+      <c r="H12" t="n">
+        <v>41.9</v>
+      </c>
+      <c r="I12" t="s">
+        <v>29</v>
+      </c>
+      <c r="J12" t="s">
+        <v>30</v>
+      </c>
+      <c r="K12" t="s">
+        <v>31</v>
+      </c>
+      <c r="L12" t="s">
+        <v>32</v>
+      </c>
+      <c r="M12" t="s">
+        <v>85</v>
+      </c>
+      <c r="N12" t="s">
+        <v>86</v>
+      </c>
+      <c r="O12" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>88</v>
+      </c>
+      <c r="B13" t="s">
+        <v>89</v>
+      </c>
+      <c r="C13" t="n">
+        <v>180</v>
+      </c>
+      <c r="D13"/>
+      <c r="E13" t="s">
+        <v>90</v>
+      </c>
+      <c r="F13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H13" t="n">
+        <v>64</v>
+      </c>
+      <c r="I13" t="s">
+        <v>29</v>
+      </c>
+      <c r="J13" t="s">
+        <v>30</v>
+      </c>
+      <c r="K13" t="s">
+        <v>91</v>
+      </c>
+      <c r="L13" t="s">
+        <v>32</v>
+      </c>
+      <c r="M13" t="s">
+        <v>92</v>
+      </c>
+      <c r="N13" t="s">
+        <v>9</v>
+      </c>
+      <c r="O13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>93</v>
+      </c>
+      <c r="B14" t="s">
+        <v>94</v>
+      </c>
+      <c r="C14" t="n">
+        <v>228</v>
+      </c>
+      <c r="D14" t="n">
+        <v>112</v>
+      </c>
+      <c r="E14" t="s">
+        <v>56</v>
+      </c>
+      <c r="F14" t="s">
+        <v>95</v>
+      </c>
+      <c r="G14" t="s">
+        <v>28</v>
+      </c>
+      <c r="H14" t="n">
+        <v>200</v>
+      </c>
+      <c r="I14" t="s">
+        <v>29</v>
+      </c>
+      <c r="J14" t="s">
+        <v>30</v>
+      </c>
+      <c r="K14" t="s">
+        <v>96</v>
+      </c>
+      <c r="L14" t="s">
+        <v>97</v>
+      </c>
+      <c r="M14" t="s">
+        <v>33</v>
+      </c>
+      <c r="N14" t="s">
+        <v>98</v>
+      </c>
+      <c r="O14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>100</v>
+      </c>
+      <c r="B15" t="s">
+        <v>101</v>
+      </c>
+      <c r="C15" t="n">
+        <v>180</v>
+      </c>
+      <c r="D15" t="n">
+        <v>80</v>
+      </c>
+      <c r="E15" t="s">
+        <v>56</v>
+      </c>
+      <c r="F15" t="s">
+        <v>27</v>
+      </c>
+      <c r="G15" t="s">
+        <v>56</v>
+      </c>
+      <c r="H15" t="n">
+        <v>29</v>
+      </c>
+      <c r="I15" t="s">
+        <v>29</v>
+      </c>
+      <c r="J15" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" t="s">
+        <v>102</v>
+      </c>
+      <c r="L15" t="s">
+        <v>32</v>
+      </c>
+      <c r="M15" t="s">
+        <v>103</v>
+      </c>
+      <c r="N15" t="s">
+        <v>9</v>
+      </c>
+      <c r="O15" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>104</v>
+      </c>
+      <c r="B16" t="s">
+        <v>105</v>
+      </c>
+      <c r="C16" t="n">
+        <v>173</v>
+      </c>
+      <c r="D16" t="n">
+        <v>74</v>
+      </c>
+      <c r="E16"/>
+      <c r="F16" t="s">
+        <v>106</v>
+      </c>
+      <c r="G16" t="s">
+        <v>74</v>
+      </c>
+      <c r="H16" t="n">
+        <v>44</v>
+      </c>
+      <c r="I16" t="s">
+        <v>29</v>
+      </c>
+      <c r="J16" t="s">
+        <v>30</v>
+      </c>
+      <c r="K16" t="s">
+        <v>107</v>
+      </c>
+      <c r="L16" t="s">
+        <v>108</v>
+      </c>
+      <c r="M16" t="s">
+        <v>71</v>
+      </c>
+      <c r="N16" t="s">
+        <v>9</v>
+      </c>
+      <c r="O16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>109</v>
+      </c>
+      <c r="B17" t="s">
+        <v>110</v>
+      </c>
+      <c r="C17" t="n">
+        <v>175</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1358</v>
+      </c>
+      <c r="E17"/>
+      <c r="F17" t="s">
+        <v>111</v>
+      </c>
+      <c r="G17" t="s">
+        <v>112</v>
+      </c>
+      <c r="H17" t="n">
+        <v>600</v>
+      </c>
+      <c r="I17" t="s">
+        <v>113</v>
+      </c>
+      <c r="J17" t="s">
+        <v>30</v>
+      </c>
+      <c r="K17" t="s">
+        <v>114</v>
+      </c>
+      <c r="L17" t="s">
+        <v>115</v>
+      </c>
+      <c r="M17" t="s">
+        <v>116</v>
+      </c>
+      <c r="N17" t="s">
+        <v>9</v>
+      </c>
+      <c r="O17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>117</v>
+      </c>
+      <c r="B18" t="s">
+        <v>118</v>
+      </c>
+      <c r="C18" t="n">
+        <v>170</v>
+      </c>
+      <c r="D18" t="n">
+        <v>77</v>
+      </c>
+      <c r="E18" t="s">
+        <v>56</v>
+      </c>
+      <c r="F18" t="s">
+        <v>27</v>
+      </c>
+      <c r="G18" t="s">
+        <v>119</v>
+      </c>
+      <c r="H18" t="n">
+        <v>21</v>
+      </c>
+      <c r="I18" t="s">
+        <v>29</v>
+      </c>
+      <c r="J18" t="s">
+        <v>30</v>
+      </c>
+      <c r="K18" t="s">
+        <v>102</v>
+      </c>
+      <c r="L18" t="s">
+        <v>32</v>
+      </c>
+      <c r="M18" t="s">
+        <v>120</v>
+      </c>
+      <c r="N18" t="s">
+        <v>121</v>
+      </c>
+      <c r="O18" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>122</v>
+      </c>
+      <c r="B19" t="s">
+        <v>123</v>
+      </c>
+      <c r="C19" t="n">
+        <v>180</v>
+      </c>
+      <c r="D19" t="n">
+        <v>110</v>
+      </c>
+      <c r="E19" t="s">
+        <v>56</v>
+      </c>
+      <c r="F19" t="s">
+        <v>27</v>
+      </c>
+      <c r="G19" t="s">
+        <v>28</v>
+      </c>
+      <c r="H19"/>
+      <c r="I19" t="s">
+        <v>29</v>
+      </c>
+      <c r="J19" t="s">
+        <v>30</v>
+      </c>
+      <c r="K19" t="s">
+        <v>124</v>
+      </c>
+      <c r="L19" t="s">
+        <v>32</v>
+      </c>
+      <c r="M19" t="s">
+        <v>71</v>
+      </c>
+      <c r="N19" t="s">
+        <v>9</v>
+      </c>
+      <c r="O19" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>125</v>
+      </c>
+      <c r="B20" t="s">
+        <v>126</v>
+      </c>
+      <c r="C20" t="n">
+        <v>66</v>
+      </c>
+      <c r="D20" t="n">
+        <v>17</v>
+      </c>
+      <c r="E20" t="s">
+        <v>51</v>
+      </c>
+      <c r="F20" t="s">
+        <v>106</v>
+      </c>
+      <c r="G20" t="s">
+        <v>56</v>
+      </c>
+      <c r="H20" t="n">
+        <v>896</v>
+      </c>
+      <c r="I20" t="s">
+        <v>29</v>
+      </c>
+      <c r="J20" t="s">
+        <v>30</v>
+      </c>
+      <c r="K20"/>
+      <c r="L20" t="s">
+        <v>127</v>
+      </c>
+      <c r="M20" t="s">
+        <v>128</v>
+      </c>
+      <c r="N20" t="s">
+        <v>9</v>
+      </c>
+      <c r="O20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>129</v>
+      </c>
+      <c r="B21" t="s">
+        <v>130</v>
+      </c>
+      <c r="C21" t="n">
+        <v>170</v>
+      </c>
+      <c r="D21" t="n">
+        <v>75</v>
+      </c>
+      <c r="E21" t="s">
+        <v>131</v>
+      </c>
+      <c r="F21" t="s">
+        <v>132</v>
+      </c>
+      <c r="G21" t="s">
+        <v>39</v>
+      </c>
+      <c r="H21" t="n">
+        <v>82</v>
+      </c>
+      <c r="I21" t="s">
+        <v>29</v>
+      </c>
+      <c r="J21" t="s">
+        <v>30</v>
+      </c>
+      <c r="K21" t="s">
+        <v>47</v>
+      </c>
+      <c r="L21" t="s">
+        <v>32</v>
+      </c>
+      <c r="M21" t="s">
+        <v>128</v>
+      </c>
+      <c r="N21" t="s">
+        <v>9</v>
+      </c>
+      <c r="O21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>133</v>
+      </c>
+      <c r="B22" t="s">
+        <v>134</v>
+      </c>
+      <c r="C22" t="n">
+        <v>183</v>
+      </c>
+      <c r="D22" t="n">
+        <v>78.2</v>
+      </c>
+      <c r="E22" t="s">
+        <v>74</v>
+      </c>
+      <c r="F22" t="s">
+        <v>27</v>
+      </c>
+      <c r="G22" t="s">
+        <v>56</v>
+      </c>
+      <c r="H22" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="I22" t="s">
+        <v>29</v>
+      </c>
+      <c r="J22" t="s">
+        <v>30</v>
+      </c>
+      <c r="K22" t="s">
+        <v>135</v>
+      </c>
+      <c r="L22" t="s">
+        <v>32</v>
+      </c>
+      <c r="M22" t="s">
+        <v>136</v>
+      </c>
+      <c r="N22" t="s">
+        <v>9</v>
+      </c>
+      <c r="O22" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>138</v>
+      </c>
+      <c r="B23" t="s">
+        <v>139</v>
+      </c>
+      <c r="C23" t="n">
+        <v>200</v>
+      </c>
+      <c r="D23" t="n">
+        <v>140</v>
+      </c>
+      <c r="E23" t="s">
+        <v>40</v>
+      </c>
+      <c r="F23" t="s">
+        <v>140</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="n">
+        <v>15</v>
+      </c>
+      <c r="I23" t="s">
+        <v>40</v>
+      </c>
+      <c r="J23" t="s">
+        <v>30</v>
+      </c>
+      <c r="K23"/>
+      <c r="L23" t="s">
+        <v>41</v>
+      </c>
+      <c r="M23" t="s">
+        <v>141</v>
+      </c>
+      <c r="N23" t="s">
+        <v>9</v>
+      </c>
+      <c r="O23" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>142</v>
+      </c>
+      <c r="B24" t="s">
+        <v>143</v>
+      </c>
+      <c r="C24" t="n">
+        <v>190</v>
+      </c>
+      <c r="D24" t="n">
+        <v>113</v>
+      </c>
+      <c r="E24" t="s">
+        <v>40</v>
+      </c>
+      <c r="F24" t="s">
+        <v>106</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="n">
+        <v>53</v>
+      </c>
+      <c r="I24" t="s">
+        <v>29</v>
+      </c>
+      <c r="J24" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" t="s">
+        <v>144</v>
+      </c>
+      <c r="L24" t="s">
+        <v>145</v>
+      </c>
+      <c r="M24" t="s">
+        <v>141</v>
+      </c>
+      <c r="N24" t="s">
+        <v>9</v>
+      </c>
+      <c r="O24" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>146</v>
+      </c>
+      <c r="B25" t="s">
+        <v>147</v>
+      </c>
+      <c r="C25" t="n">
+        <v>177</v>
+      </c>
+      <c r="D25" t="n">
+        <v>79</v>
+      </c>
+      <c r="E25" t="s">
+        <v>74</v>
+      </c>
+      <c r="F25" t="s">
+        <v>148</v>
+      </c>
+      <c r="G25" t="s">
+        <v>56</v>
+      </c>
+      <c r="H25" t="n">
+        <v>31</v>
+      </c>
+      <c r="I25" t="s">
+        <v>29</v>
+      </c>
+      <c r="J25" t="s">
+        <v>30</v>
+      </c>
+      <c r="K25" t="s">
+        <v>149</v>
+      </c>
+      <c r="L25" t="s">
+        <v>32</v>
+      </c>
+      <c r="M25" t="s">
+        <v>150</v>
+      </c>
+      <c r="N25" t="s">
+        <v>9</v>
+      </c>
+      <c r="O25" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>152</v>
+      </c>
+      <c r="B26" t="s">
+        <v>153</v>
+      </c>
+      <c r="C26" t="n">
+        <v>175</v>
+      </c>
+      <c r="D26" t="n">
+        <v>79</v>
+      </c>
+      <c r="E26" t="s">
+        <v>40</v>
+      </c>
+      <c r="F26" t="s">
+        <v>57</v>
+      </c>
+      <c r="G26" t="s">
+        <v>28</v>
+      </c>
+      <c r="H26" t="n">
+        <v>37</v>
+      </c>
+      <c r="I26" t="s">
+        <v>29</v>
+      </c>
+      <c r="J26" t="s">
+        <v>30</v>
+      </c>
+      <c r="K26" t="s">
+        <v>154</v>
+      </c>
+      <c r="L26" t="s">
+        <v>32</v>
+      </c>
+      <c r="M26" t="s">
+        <v>141</v>
+      </c>
+      <c r="N26" t="s">
+        <v>9</v>
+      </c>
+      <c r="O26" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>155</v>
+      </c>
+      <c r="B27" t="s">
+        <v>156</v>
+      </c>
+      <c r="C27" t="n">
+        <v>180</v>
+      </c>
+      <c r="D27" t="n">
+        <v>83</v>
+      </c>
+      <c r="E27" t="s">
+        <v>40</v>
+      </c>
+      <c r="F27" t="s">
+        <v>157</v>
+      </c>
+      <c r="G27" t="s">
+        <v>112</v>
+      </c>
+      <c r="H27" t="n">
+        <v>41</v>
+      </c>
+      <c r="I27" t="s">
+        <v>29</v>
+      </c>
+      <c r="J27" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" t="s">
+        <v>158</v>
+      </c>
+      <c r="L27" t="s">
+        <v>159</v>
+      </c>
+      <c r="M27" t="s">
+        <v>160</v>
+      </c>
+      <c r="N27" t="s">
+        <v>9</v>
+      </c>
+      <c r="O27" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>161</v>
+      </c>
+      <c r="B28" t="s">
+        <v>162</v>
+      </c>
+      <c r="C28" t="n">
+        <v>150</v>
+      </c>
+      <c r="D28"/>
+      <c r="E28" t="s">
+        <v>163</v>
+      </c>
+      <c r="F28" t="s">
+        <v>27</v>
+      </c>
+      <c r="G28" t="s">
+        <v>28</v>
+      </c>
+      <c r="H28" t="n">
+        <v>48</v>
+      </c>
+      <c r="I28" t="s">
+        <v>58</v>
+      </c>
+      <c r="J28" t="s">
+        <v>59</v>
+      </c>
+      <c r="K28" t="s">
+        <v>164</v>
+      </c>
+      <c r="L28" t="s">
+        <v>32</v>
+      </c>
+      <c r="M28" t="s">
+        <v>165</v>
+      </c>
+      <c r="N28" t="s">
+        <v>9</v>
+      </c>
+      <c r="O28" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>166</v>
+      </c>
+      <c r="B29" t="s">
+        <v>167</v>
+      </c>
+      <c r="C29"/>
+      <c r="D29"/>
+      <c r="E29" t="s">
+        <v>56</v>
+      </c>
+      <c r="F29" t="s">
+        <v>27</v>
+      </c>
+      <c r="G29" t="s">
+        <v>56</v>
+      </c>
+      <c r="H29"/>
+      <c r="I29" t="s">
+        <v>29</v>
+      </c>
+      <c r="J29" t="s">
+        <v>30</v>
+      </c>
+      <c r="K29"/>
+      <c r="L29" t="s">
+        <v>32</v>
+      </c>
+      <c r="M29" t="s">
+        <v>165</v>
+      </c>
+      <c r="N29" t="s">
+        <v>9</v>
+      </c>
+      <c r="O29" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>169</v>
+      </c>
+      <c r="B30" t="s">
+        <v>170</v>
+      </c>
+      <c r="C30" t="n">
+        <v>88</v>
+      </c>
+      <c r="D30" t="n">
+        <v>20</v>
+      </c>
+      <c r="E30" t="s">
+        <v>56</v>
+      </c>
+      <c r="F30" t="s">
+        <v>56</v>
+      </c>
+      <c r="G30" t="s">
+        <v>56</v>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+      <c r="I30" t="s">
+        <v>29</v>
+      </c>
+      <c r="J30" t="s">
+        <v>30</v>
+      </c>
+      <c r="K30" t="s">
+        <v>171</v>
+      </c>
+      <c r="L30" t="s">
+        <v>172</v>
+      </c>
+      <c r="M30" t="s">
+        <v>165</v>
+      </c>
+      <c r="N30" t="s">
+        <v>9</v>
+      </c>
+      <c r="O30" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>173</v>
+      </c>
+      <c r="B31" t="s">
+        <v>174</v>
+      </c>
+      <c r="C31" t="n">
+        <v>160</v>
+      </c>
+      <c r="D31" t="n">
+        <v>68</v>
+      </c>
+      <c r="E31" t="s">
+        <v>40</v>
+      </c>
+      <c r="F31" t="s">
+        <v>131</v>
+      </c>
+      <c r="G31" t="s">
+        <v>74</v>
+      </c>
+      <c r="H31"/>
+      <c r="I31" t="s">
+        <v>29</v>
+      </c>
+      <c r="J31" t="s">
+        <v>30</v>
+      </c>
+      <c r="K31" t="s">
+        <v>175</v>
+      </c>
+      <c r="L31" t="s">
+        <v>176</v>
+      </c>
+      <c r="M31" t="s">
+        <v>165</v>
+      </c>
+      <c r="N31" t="s">
+        <v>9</v>
+      </c>
+      <c r="O31" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>177</v>
+      </c>
+      <c r="B32" t="s">
+        <v>178</v>
+      </c>
+      <c r="C32" t="n">
+        <v>193</v>
+      </c>
+      <c r="D32" t="n">
+        <v>89</v>
+      </c>
+      <c r="E32" t="s">
+        <v>56</v>
+      </c>
+      <c r="F32" t="s">
+        <v>27</v>
+      </c>
+      <c r="G32" t="s">
+        <v>28</v>
+      </c>
+      <c r="H32" t="n">
+        <v>92</v>
+      </c>
+      <c r="I32" t="s">
+        <v>29</v>
+      </c>
+      <c r="J32" t="s">
+        <v>30</v>
+      </c>
+      <c r="K32"/>
+      <c r="L32" t="s">
+        <v>32</v>
+      </c>
+      <c r="M32" t="s">
+        <v>179</v>
+      </c>
+      <c r="N32" t="s">
+        <v>81</v>
+      </c>
+      <c r="O32" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>180</v>
+      </c>
+      <c r="B33" t="s">
+        <v>181</v>
+      </c>
+      <c r="C33" t="n">
+        <v>191</v>
+      </c>
+      <c r="D33" t="n">
+        <v>90</v>
+      </c>
+      <c r="E33" t="s">
+        <v>40</v>
+      </c>
+      <c r="F33" t="s">
+        <v>182</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33"/>
+      <c r="I33" t="s">
+        <v>29</v>
+      </c>
+      <c r="J33" t="s">
+        <v>30</v>
+      </c>
+      <c r="K33" t="s">
+        <v>183</v>
+      </c>
+      <c r="L33" t="s">
+        <v>184</v>
+      </c>
+      <c r="M33" t="s">
+        <v>85</v>
+      </c>
+      <c r="N33" t="s">
+        <v>9</v>
+      </c>
+      <c r="O33" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>185</v>
+      </c>
+      <c r="B34" t="s">
+        <v>186</v>
+      </c>
+      <c r="C34" t="n">
+        <v>170</v>
+      </c>
+      <c r="D34"/>
+      <c r="E34" t="s">
+        <v>26</v>
+      </c>
+      <c r="F34" t="s">
+        <v>27</v>
+      </c>
+      <c r="G34" t="s">
+        <v>28</v>
+      </c>
+      <c r="H34" t="n">
+        <v>91</v>
+      </c>
+      <c r="I34" t="s">
+        <v>29</v>
+      </c>
+      <c r="J34" t="s">
+        <v>30</v>
+      </c>
+      <c r="K34" t="s">
+        <v>187</v>
+      </c>
+      <c r="L34" t="s">
+        <v>32</v>
+      </c>
+      <c r="M34" t="s">
+        <v>179</v>
+      </c>
+      <c r="N34" t="s">
+        <v>9</v>
+      </c>
+      <c r="O34" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>188</v>
+      </c>
+      <c r="B35" t="s">
+        <v>189</v>
+      </c>
+      <c r="C35" t="n">
+        <v>196</v>
+      </c>
+      <c r="D35" t="n">
+        <v>66</v>
+      </c>
+      <c r="E35" t="s">
+        <v>40</v>
+      </c>
+      <c r="F35" t="s">
+        <v>112</v>
+      </c>
+      <c r="G35" t="s">
+        <v>112</v>
+      </c>
+      <c r="H35" t="n">
+        <v>52</v>
+      </c>
+      <c r="I35" t="s">
+        <v>29</v>
+      </c>
+      <c r="J35" t="s">
+        <v>30</v>
+      </c>
+      <c r="K35" t="s">
+        <v>47</v>
+      </c>
+      <c r="L35" t="s">
+        <v>190</v>
+      </c>
+      <c r="M35" t="s">
+        <v>191</v>
+      </c>
+      <c r="N35" t="s">
+        <v>9</v>
+      </c>
+      <c r="O35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>192</v>
+      </c>
+      <c r="B36" t="s">
+        <v>193</v>
+      </c>
+      <c r="C36" t="n">
+        <v>224</v>
+      </c>
+      <c r="D36" t="n">
+        <v>82</v>
+      </c>
+      <c r="E36" t="s">
+        <v>40</v>
+      </c>
+      <c r="F36" t="s">
+        <v>131</v>
+      </c>
+      <c r="G36" t="s">
+        <v>112</v>
+      </c>
+      <c r="H36"/>
+      <c r="I36" t="s">
+        <v>29</v>
+      </c>
+      <c r="J36" t="s">
+        <v>30</v>
+      </c>
+      <c r="K36" t="s">
+        <v>47</v>
+      </c>
+      <c r="L36" t="s">
+        <v>190</v>
+      </c>
+      <c r="M36" t="s">
+        <v>179</v>
+      </c>
+      <c r="N36" t="s">
+        <v>9</v>
+      </c>
+      <c r="O36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>194</v>
+      </c>
+      <c r="B37" t="s">
+        <v>195</v>
+      </c>
+      <c r="C37" t="n">
+        <v>206</v>
+      </c>
+      <c r="D37"/>
+      <c r="E37" t="s">
+        <v>40</v>
+      </c>
+      <c r="F37" t="s">
+        <v>106</v>
+      </c>
+      <c r="G37" t="s">
+        <v>112</v>
+      </c>
+      <c r="H37"/>
+      <c r="I37" t="s">
+        <v>29</v>
+      </c>
+      <c r="J37" t="s">
+        <v>30</v>
+      </c>
+      <c r="K37" t="s">
+        <v>47</v>
+      </c>
+      <c r="L37" t="s">
+        <v>190</v>
+      </c>
+      <c r="M37" t="s">
+        <v>179</v>
+      </c>
+      <c r="N37" t="s">
+        <v>9</v>
+      </c>
+      <c r="O37" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>196</v>
+      </c>
+      <c r="B38" t="s">
+        <v>197</v>
+      </c>
+      <c r="C38" t="n">
+        <v>183</v>
+      </c>
+      <c r="D38"/>
+      <c r="E38" t="s">
+        <v>56</v>
+      </c>
+      <c r="F38" t="s">
+        <v>27</v>
+      </c>
+      <c r="G38" t="s">
+        <v>28</v>
+      </c>
+      <c r="H38"/>
+      <c r="I38"/>
+      <c r="J38"/>
+      <c r="K38" t="s">
+        <v>47</v>
+      </c>
+      <c r="L38"/>
+      <c r="M38" t="s">
+        <v>179</v>
+      </c>
+      <c r="N38" t="s">
+        <v>9</v>
+      </c>
+      <c r="O38" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>199</v>
+      </c>
+      <c r="B39" t="s">
+        <v>200</v>
+      </c>
+      <c r="C39" t="n">
+        <v>137</v>
+      </c>
+      <c r="D39"/>
+      <c r="E39" t="s">
+        <v>74</v>
+      </c>
+      <c r="F39" t="s">
+        <v>201</v>
+      </c>
+      <c r="G39" t="s">
+        <v>39</v>
+      </c>
+      <c r="H39"/>
+      <c r="I39" t="s">
+        <v>29</v>
+      </c>
+      <c r="J39" t="s">
+        <v>30</v>
+      </c>
+      <c r="K39" t="s">
+        <v>202</v>
+      </c>
+      <c r="L39" t="s">
+        <v>203</v>
+      </c>
+      <c r="M39" t="s">
+        <v>191</v>
+      </c>
+      <c r="N39" t="s">
+        <v>9</v>
+      </c>
+      <c r="O39" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>204</v>
+      </c>
+      <c r="B40" t="s">
+        <v>205</v>
+      </c>
+      <c r="C40" t="n">
+        <v>112</v>
+      </c>
+      <c r="D40" t="n">
+        <v>40</v>
+      </c>
+      <c r="E40" t="s">
+        <v>40</v>
+      </c>
+      <c r="F40" t="s">
+        <v>206</v>
+      </c>
+      <c r="G40" t="s">
+        <v>112</v>
+      </c>
+      <c r="H40"/>
+      <c r="I40" t="s">
+        <v>29</v>
+      </c>
+      <c r="J40" t="s">
+        <v>30</v>
+      </c>
+      <c r="K40" t="s">
+        <v>207</v>
+      </c>
+      <c r="L40" t="s">
+        <v>208</v>
+      </c>
+      <c r="M40" t="s">
+        <v>179</v>
+      </c>
+      <c r="N40" t="s">
+        <v>9</v>
+      </c>
+      <c r="O40" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>209</v>
+      </c>
+      <c r="B41" t="s">
+        <v>210</v>
+      </c>
+      <c r="C41" t="n">
+        <v>183</v>
+      </c>
+      <c r="D41"/>
+      <c r="E41" t="s">
+        <v>74</v>
+      </c>
+      <c r="F41" t="s">
+        <v>148</v>
+      </c>
+      <c r="G41" t="s">
+        <v>56</v>
+      </c>
+      <c r="H41" t="n">
+        <v>62</v>
+      </c>
+      <c r="I41"/>
+      <c r="J41"/>
+      <c r="K41" t="s">
+        <v>47</v>
+      </c>
+      <c r="L41"/>
+      <c r="M41" t="s">
+        <v>179</v>
+      </c>
+      <c r="N41" t="s">
+        <v>9</v>
+      </c>
+      <c r="O41" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>211</v>
+      </c>
+      <c r="B42" t="s">
+        <v>212</v>
+      </c>
+      <c r="C42" t="n">
+        <v>163</v>
+      </c>
+      <c r="D42"/>
+      <c r="E42" t="s">
+        <v>74</v>
+      </c>
+      <c r="F42" t="s">
+        <v>27</v>
+      </c>
+      <c r="G42" t="s">
+        <v>56</v>
+      </c>
+      <c r="H42" t="n">
+        <v>72</v>
+      </c>
+      <c r="I42" t="s">
+        <v>58</v>
+      </c>
+      <c r="J42" t="s">
+        <v>59</v>
+      </c>
+      <c r="K42" t="s">
+        <v>31</v>
+      </c>
+      <c r="L42" t="s">
+        <v>32</v>
+      </c>
+      <c r="M42" t="s">
+        <v>191</v>
+      </c>
+      <c r="N42" t="s">
+        <v>9</v>
+      </c>
+      <c r="O42" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>213</v>
+      </c>
+      <c r="B43" t="s">
+        <v>214</v>
+      </c>
+      <c r="C43" t="n">
+        <v>175</v>
+      </c>
+      <c r="D43" t="n">
+        <v>80</v>
+      </c>
+      <c r="E43" t="s">
+        <v>40</v>
+      </c>
+      <c r="F43" t="s">
+        <v>46</v>
+      </c>
+      <c r="G43" t="s">
+        <v>39</v>
+      </c>
+      <c r="H43" t="n">
+        <v>54</v>
+      </c>
+      <c r="I43" t="s">
+        <v>29</v>
+      </c>
+      <c r="J43" t="s">
+        <v>30</v>
+      </c>
+      <c r="K43" t="s">
+        <v>215</v>
+      </c>
+      <c r="L43" t="s">
+        <v>216</v>
+      </c>
+      <c r="M43" t="s">
+        <v>179</v>
+      </c>
+      <c r="N43" t="s">
+        <v>217</v>
+      </c>
+      <c r="O43" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>219</v>
+      </c>
+      <c r="B44" t="s">
+        <v>220</v>
+      </c>
+      <c r="C44" t="n">
+        <v>180</v>
+      </c>
+      <c r="D44"/>
+      <c r="E44" t="s">
+        <v>40</v>
+      </c>
+      <c r="F44" t="s">
+        <v>132</v>
+      </c>
+      <c r="G44" t="s">
+        <v>221</v>
+      </c>
+      <c r="H44"/>
+      <c r="I44" t="s">
+        <v>29</v>
+      </c>
+      <c r="J44" t="s">
+        <v>30</v>
+      </c>
+      <c r="K44" t="s">
+        <v>222</v>
+      </c>
+      <c r="L44" t="s">
+        <v>223</v>
+      </c>
+      <c r="M44" t="s">
+        <v>165</v>
+      </c>
+      <c r="N44" t="s">
+        <v>9</v>
+      </c>
+      <c r="O44" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>224</v>
+      </c>
+      <c r="B45" t="s">
+        <v>225</v>
+      </c>
+      <c r="C45" t="n">
+        <v>178</v>
+      </c>
+      <c r="D45" t="n">
+        <v>55</v>
+      </c>
+      <c r="E45" t="s">
+        <v>40</v>
+      </c>
+      <c r="F45" t="s">
+        <v>28</v>
+      </c>
+      <c r="G45" t="s">
+        <v>119</v>
+      </c>
+      <c r="H45" t="n">
+        <v>48</v>
+      </c>
+      <c r="I45" t="s">
+        <v>58</v>
+      </c>
+      <c r="J45" t="s">
+        <v>59</v>
+      </c>
+      <c r="K45" t="s">
+        <v>222</v>
+      </c>
+      <c r="L45" t="s">
+        <v>223</v>
+      </c>
+      <c r="M45" t="s">
+        <v>85</v>
+      </c>
+      <c r="N45" t="s">
+        <v>9</v>
+      </c>
+      <c r="O45" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>226</v>
+      </c>
+      <c r="B46" t="s">
+        <v>227</v>
+      </c>
+      <c r="C46" t="n">
+        <v>94</v>
+      </c>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>40</v>
+      </c>
+      <c r="F46" t="s">
+        <v>201</v>
+      </c>
+      <c r="G46" t="s">
+        <v>39</v>
+      </c>
+      <c r="H46"/>
+      <c r="I46" t="s">
+        <v>29</v>
+      </c>
+      <c r="J46" t="s">
+        <v>30</v>
+      </c>
+      <c r="K46" t="s">
+        <v>228</v>
+      </c>
+      <c r="L46" t="s">
+        <v>229</v>
+      </c>
+      <c r="M46" t="s">
+        <v>179</v>
+      </c>
+      <c r="N46" t="s">
+        <v>9</v>
+      </c>
+      <c r="O46" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>230</v>
+      </c>
+      <c r="B47" t="s">
+        <v>231</v>
+      </c>
+      <c r="C47" t="n">
+        <v>122</v>
+      </c>
+      <c r="D47"/>
+      <c r="E47" t="s">
+        <v>40</v>
+      </c>
+      <c r="F47" t="s">
+        <v>45</v>
+      </c>
+      <c r="G47" t="s">
+        <v>74</v>
+      </c>
+      <c r="H47"/>
+      <c r="I47" t="s">
+        <v>29</v>
+      </c>
+      <c r="J47" t="s">
+        <v>30</v>
+      </c>
+      <c r="K47" t="s">
+        <v>232</v>
+      </c>
+      <c r="L47" t="s">
+        <v>233</v>
+      </c>
+      <c r="M47" t="s">
+        <v>179</v>
+      </c>
+      <c r="N47" t="s">
+        <v>9</v>
+      </c>
+      <c r="O47" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>234</v>
+      </c>
+      <c r="B48" t="s">
+        <v>235</v>
+      </c>
+      <c r="C48" t="n">
+        <v>163</v>
+      </c>
+      <c r="D48" t="n">
+        <v>65</v>
+      </c>
+      <c r="E48" t="s">
+        <v>40</v>
+      </c>
+      <c r="F48" t="s">
+        <v>236</v>
+      </c>
+      <c r="G48" t="s">
+        <v>112</v>
+      </c>
+      <c r="H48"/>
+      <c r="I48" t="s">
+        <v>29</v>
+      </c>
+      <c r="J48" t="s">
+        <v>30</v>
+      </c>
+      <c r="K48" t="s">
+        <v>237</v>
+      </c>
+      <c r="L48" t="s">
+        <v>238</v>
+      </c>
+      <c r="M48" t="s">
+        <v>179</v>
+      </c>
+      <c r="N48" t="s">
+        <v>9</v>
+      </c>
+      <c r="O48" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>239</v>
+      </c>
+      <c r="B49" t="s">
+        <v>240</v>
+      </c>
+      <c r="C49" t="n">
+        <v>188</v>
+      </c>
+      <c r="D49" t="n">
+        <v>84</v>
+      </c>
+      <c r="E49" t="s">
+        <v>40</v>
+      </c>
+      <c r="F49" t="s">
+        <v>148</v>
+      </c>
+      <c r="G49" t="s">
+        <v>56</v>
+      </c>
+      <c r="H49" t="n">
+        <v>72</v>
+      </c>
+      <c r="I49" t="s">
+        <v>29</v>
+      </c>
+      <c r="J49" t="s">
+        <v>30</v>
+      </c>
+      <c r="K49" t="s">
+        <v>241</v>
+      </c>
+      <c r="L49" t="s">
+        <v>32</v>
+      </c>
+      <c r="M49" t="s">
+        <v>85</v>
+      </c>
+      <c r="N49" t="s">
+        <v>9</v>
+      </c>
+      <c r="O49" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>242</v>
+      </c>
+      <c r="B50" t="s">
+        <v>243</v>
+      </c>
+      <c r="C50" t="n">
+        <v>198</v>
+      </c>
+      <c r="D50" t="n">
+        <v>82</v>
+      </c>
+      <c r="E50" t="s">
+        <v>51</v>
+      </c>
+      <c r="F50" t="s">
+        <v>132</v>
+      </c>
+      <c r="G50" t="s">
+        <v>39</v>
+      </c>
+      <c r="H50" t="n">
+        <v>92</v>
+      </c>
+      <c r="I50" t="s">
+        <v>29</v>
+      </c>
+      <c r="J50" t="s">
+        <v>30</v>
+      </c>
+      <c r="K50" t="s">
+        <v>244</v>
+      </c>
+      <c r="L50" t="s">
+        <v>245</v>
+      </c>
+      <c r="M50" t="s">
+        <v>85</v>
+      </c>
+      <c r="N50" t="s">
+        <v>9</v>
+      </c>
+      <c r="O50" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>246</v>
+      </c>
+      <c r="B51" t="s">
+        <v>247</v>
+      </c>
+      <c r="C51" t="n">
+        <v>196</v>
+      </c>
+      <c r="D51" t="n">
+        <v>87</v>
+      </c>
+      <c r="E51" t="s">
+        <v>40</v>
+      </c>
+      <c r="F51" t="s">
+        <v>106</v>
+      </c>
+      <c r="G51" t="s">
+        <v>74</v>
+      </c>
+      <c r="H51"/>
+      <c r="I51" t="s">
+        <v>29</v>
+      </c>
+      <c r="J51" t="s">
+        <v>30</v>
+      </c>
+      <c r="K51" t="s">
+        <v>248</v>
+      </c>
+      <c r="L51" t="s">
+        <v>249</v>
+      </c>
+      <c r="M51" t="s">
+        <v>85</v>
+      </c>
+      <c r="N51" t="s">
+        <v>9</v>
+      </c>
+      <c r="O51" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>250</v>
+      </c>
+      <c r="B52" t="s">
+        <v>251</v>
+      </c>
+      <c r="C52" t="n">
+        <v>171</v>
+      </c>
+      <c r="D52"/>
+      <c r="E52" t="s">
+        <v>74</v>
+      </c>
+      <c r="F52" t="s">
+        <v>56</v>
+      </c>
+      <c r="G52" t="s">
+        <v>56</v>
+      </c>
+      <c r="H52"/>
+      <c r="I52" t="s">
+        <v>29</v>
+      </c>
+      <c r="J52" t="s">
+        <v>30</v>
+      </c>
+      <c r="K52" t="s">
+        <v>252</v>
+      </c>
+      <c r="L52" t="s">
+        <v>216</v>
+      </c>
+      <c r="M52" t="s">
+        <v>253</v>
+      </c>
+      <c r="N52" t="s">
+        <v>9</v>
+      </c>
+      <c r="O52" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>254</v>
+      </c>
+      <c r="B53" t="s">
+        <v>255</v>
+      </c>
+      <c r="C53" t="n">
+        <v>184</v>
+      </c>
+      <c r="D53" t="n">
+        <v>50</v>
+      </c>
+      <c r="E53" t="s">
+        <v>40</v>
+      </c>
+      <c r="F53" t="s">
+        <v>148</v>
+      </c>
+      <c r="G53" t="s">
+        <v>28</v>
+      </c>
+      <c r="H53"/>
+      <c r="I53" t="s">
+        <v>58</v>
+      </c>
+      <c r="J53" t="s">
+        <v>59</v>
+      </c>
+      <c r="K53" t="s">
+        <v>187</v>
+      </c>
+      <c r="L53" t="s">
+        <v>256</v>
+      </c>
+      <c r="M53" t="s">
+        <v>253</v>
+      </c>
+      <c r="N53" t="s">
+        <v>9</v>
+      </c>
+      <c r="O53" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>257</v>
+      </c>
+      <c r="B54" t="s">
+        <v>258</v>
+      </c>
+      <c r="C54" t="n">
+        <v>188</v>
+      </c>
+      <c r="D54"/>
+      <c r="E54" t="s">
+        <v>40</v>
+      </c>
+      <c r="F54" t="s">
+        <v>132</v>
+      </c>
+      <c r="G54" t="s">
+        <v>112</v>
+      </c>
+      <c r="H54"/>
+      <c r="I54" t="s">
+        <v>29</v>
+      </c>
+      <c r="J54" t="s">
+        <v>30</v>
+      </c>
+      <c r="K54" t="s">
+        <v>259</v>
+      </c>
+      <c r="L54" t="s">
+        <v>260</v>
+      </c>
+      <c r="M54" t="s">
+        <v>253</v>
+      </c>
+      <c r="N54" t="s">
+        <v>9</v>
+      </c>
+      <c r="O54" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>261</v>
+      </c>
+      <c r="B55" t="s">
+        <v>262</v>
+      </c>
+      <c r="C55" t="n">
+        <v>264</v>
+      </c>
+      <c r="D55"/>
+      <c r="E55" t="s">
+        <v>40</v>
+      </c>
+      <c r="F55" t="s">
+        <v>51</v>
+      </c>
+      <c r="G55" t="s">
+        <v>39</v>
+      </c>
+      <c r="H55"/>
+      <c r="I55" t="s">
+        <v>29</v>
+      </c>
+      <c r="J55" t="s">
+        <v>30</v>
+      </c>
+      <c r="K55" t="s">
+        <v>263</v>
+      </c>
+      <c r="L55" t="s">
+        <v>264</v>
+      </c>
+      <c r="M55" t="s">
+        <v>179</v>
+      </c>
+      <c r="N55" t="s">
+        <v>9</v>
+      </c>
+      <c r="O55" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>265</v>
+      </c>
+      <c r="B56" t="s">
+        <v>266</v>
+      </c>
+      <c r="C56" t="n">
+        <v>188</v>
+      </c>
+      <c r="D56" t="n">
+        <v>80</v>
+      </c>
+      <c r="E56" t="s">
+        <v>40</v>
+      </c>
+      <c r="F56" t="s">
+        <v>112</v>
+      </c>
+      <c r="G56" t="s">
+        <v>74</v>
+      </c>
+      <c r="H56" t="n">
+        <v>22</v>
+      </c>
+      <c r="I56" t="s">
+        <v>29</v>
+      </c>
+      <c r="J56" t="s">
+        <v>30</v>
+      </c>
+      <c r="K56" t="s">
+        <v>267</v>
+      </c>
+      <c r="L56" t="s">
+        <v>268</v>
+      </c>
+      <c r="M56" t="s">
+        <v>85</v>
+      </c>
+      <c r="N56" t="s">
+        <v>9</v>
+      </c>
+      <c r="O56" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>270</v>
+      </c>
+      <c r="B57" t="s">
+        <v>271</v>
+      </c>
+      <c r="C57" t="n">
+        <v>196</v>
+      </c>
+      <c r="D57"/>
+      <c r="E57" t="s">
+        <v>40</v>
+      </c>
+      <c r="F57" t="s">
+        <v>28</v>
+      </c>
+      <c r="G57" t="s">
+        <v>28</v>
+      </c>
+      <c r="H57"/>
+      <c r="I57" t="s">
+        <v>29</v>
+      </c>
+      <c r="J57" t="s">
+        <v>30</v>
+      </c>
+      <c r="K57" t="s">
+        <v>272</v>
+      </c>
+      <c r="L57" t="s">
+        <v>273</v>
+      </c>
+      <c r="M57" t="s">
+        <v>191</v>
+      </c>
+      <c r="N57" t="s">
+        <v>9</v>
+      </c>
+      <c r="O57" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>274</v>
+      </c>
+      <c r="B58" t="s">
+        <v>275</v>
+      </c>
+      <c r="C58" t="n">
+        <v>185</v>
+      </c>
+      <c r="D58" t="n">
+        <v>85</v>
+      </c>
+      <c r="E58" t="s">
+        <v>74</v>
+      </c>
+      <c r="F58" t="s">
+        <v>148</v>
+      </c>
+      <c r="G58" t="s">
+        <v>56</v>
+      </c>
+      <c r="H58"/>
+      <c r="I58" t="s">
+        <v>29</v>
+      </c>
+      <c r="J58" t="s">
+        <v>30</v>
+      </c>
+      <c r="K58" t="s">
+        <v>47</v>
+      </c>
+      <c r="L58" t="s">
+        <v>32</v>
+      </c>
+      <c r="M58" t="s">
+        <v>276</v>
+      </c>
+      <c r="N58" t="s">
+        <v>9</v>
+      </c>
+      <c r="O58" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>278</v>
+      </c>
+      <c r="B59" t="s">
+        <v>279</v>
+      </c>
+      <c r="C59" t="n">
+        <v>157</v>
+      </c>
+      <c r="D59"/>
+      <c r="E59" t="s">
+        <v>56</v>
+      </c>
+      <c r="F59" t="s">
+        <v>57</v>
+      </c>
+      <c r="G59" t="s">
+        <v>56</v>
+      </c>
+      <c r="H59"/>
+      <c r="I59" t="s">
+        <v>58</v>
+      </c>
+      <c r="J59" t="s">
+        <v>59</v>
+      </c>
+      <c r="K59" t="s">
+        <v>47</v>
+      </c>
+      <c r="L59" t="s">
+        <v>32</v>
+      </c>
+      <c r="M59" t="s">
+        <v>276</v>
+      </c>
+      <c r="N59" t="s">
+        <v>9</v>
+      </c>
+      <c r="O59" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>280</v>
+      </c>
+      <c r="B60" t="s">
+        <v>281</v>
+      </c>
+      <c r="C60" t="n">
+        <v>183</v>
+      </c>
+      <c r="D60"/>
+      <c r="E60" t="s">
+        <v>56</v>
+      </c>
+      <c r="F60" t="s">
+        <v>27</v>
+      </c>
+      <c r="G60" t="s">
+        <v>28</v>
+      </c>
+      <c r="H60" t="n">
+        <v>82</v>
+      </c>
+      <c r="I60" t="s">
+        <v>29</v>
+      </c>
+      <c r="J60" t="s">
+        <v>30</v>
+      </c>
+      <c r="K60" t="s">
+        <v>31</v>
+      </c>
+      <c r="L60" t="s">
+        <v>32</v>
+      </c>
+      <c r="M60" t="s">
+        <v>276</v>
+      </c>
+      <c r="N60" t="s">
+        <v>9</v>
+      </c>
+      <c r="O60" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>282</v>
+      </c>
+      <c r="B61" t="s">
+        <v>283</v>
+      </c>
+      <c r="C61" t="n">
+        <v>183</v>
+      </c>
+      <c r="D61" t="n">
+        <v>80</v>
+      </c>
+      <c r="E61" t="s">
+        <v>40</v>
+      </c>
+      <c r="F61" t="s">
+        <v>106</v>
+      </c>
+      <c r="G61" t="s">
+        <v>39</v>
+      </c>
+      <c r="H61"/>
+      <c r="I61" t="s">
+        <v>29</v>
+      </c>
+      <c r="J61" t="s">
+        <v>30</v>
+      </c>
+      <c r="K61" t="s">
+        <v>284</v>
+      </c>
+      <c r="L61" t="s">
+        <v>285</v>
+      </c>
+      <c r="M61" t="s">
+        <v>286</v>
+      </c>
+      <c r="N61" t="s">
+        <v>9</v>
+      </c>
+      <c r="O61" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>287</v>
+      </c>
+      <c r="B62" t="s">
+        <v>288</v>
+      </c>
+      <c r="C62" t="n">
+        <v>170</v>
+      </c>
+      <c r="D62" t="n">
+        <v>56.2</v>
+      </c>
+      <c r="E62" t="s">
+        <v>74</v>
+      </c>
+      <c r="F62" t="s">
+        <v>39</v>
+      </c>
+      <c r="G62" t="s">
+        <v>28</v>
+      </c>
+      <c r="H62" t="n">
+        <v>58</v>
+      </c>
+      <c r="I62" t="s">
+        <v>58</v>
+      </c>
+      <c r="J62" t="s">
+        <v>59</v>
+      </c>
+      <c r="K62" t="s">
+        <v>289</v>
+      </c>
+      <c r="L62" t="s">
+        <v>290</v>
+      </c>
+      <c r="M62" t="s">
+        <v>286</v>
+      </c>
+      <c r="N62" t="s">
+        <v>9</v>
+      </c>
+      <c r="O62" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>291</v>
+      </c>
+      <c r="B63" t="s">
+        <v>292</v>
+      </c>
+      <c r="C63" t="n">
+        <v>166</v>
+      </c>
+      <c r="D63" t="n">
+        <v>50</v>
+      </c>
+      <c r="E63" t="s">
+        <v>74</v>
+      </c>
+      <c r="F63" t="s">
+        <v>39</v>
+      </c>
+      <c r="G63" t="s">
+        <v>28</v>
+      </c>
+      <c r="H63" t="n">
+        <v>40</v>
+      </c>
+      <c r="I63" t="s">
+        <v>58</v>
+      </c>
+      <c r="J63" t="s">
+        <v>59</v>
+      </c>
+      <c r="K63" t="s">
+        <v>289</v>
+      </c>
+      <c r="L63" t="s">
+        <v>290</v>
+      </c>
+      <c r="M63" t="s">
+        <v>276</v>
+      </c>
+      <c r="N63" t="s">
+        <v>9</v>
+      </c>
+      <c r="O63" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>293</v>
+      </c>
+      <c r="B64" t="s">
+        <v>294</v>
+      </c>
+      <c r="C64" t="n">
+        <v>165</v>
+      </c>
+      <c r="D64"/>
+      <c r="E64" t="s">
+        <v>56</v>
+      </c>
+      <c r="F64" t="s">
+        <v>57</v>
+      </c>
+      <c r="G64" t="s">
+        <v>56</v>
+      </c>
+      <c r="H64"/>
+      <c r="I64" t="s">
+        <v>58</v>
+      </c>
+      <c r="J64" t="s">
+        <v>59</v>
+      </c>
+      <c r="K64" t="s">
+        <v>47</v>
+      </c>
+      <c r="L64" t="s">
+        <v>32</v>
+      </c>
+      <c r="M64" t="s">
+        <v>276</v>
+      </c>
+      <c r="N64" t="s">
+        <v>9</v>
+      </c>
+      <c r="O64" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>295</v>
+      </c>
+      <c r="B65" t="s">
+        <v>296</v>
+      </c>
+      <c r="C65" t="n">
+        <v>193</v>
+      </c>
+      <c r="D65" t="n">
+        <v>80</v>
+      </c>
+      <c r="E65" t="s">
+        <v>51</v>
+      </c>
+      <c r="F65" t="s">
+        <v>27</v>
+      </c>
+      <c r="G65" t="s">
+        <v>56</v>
+      </c>
+      <c r="H65" t="n">
+        <v>102</v>
+      </c>
+      <c r="I65" t="s">
+        <v>29</v>
+      </c>
+      <c r="J65" t="s">
+        <v>30</v>
+      </c>
+      <c r="K65" t="s">
+        <v>297</v>
+      </c>
+      <c r="L65" t="s">
+        <v>32</v>
+      </c>
+      <c r="M65" t="s">
+        <v>286</v>
+      </c>
+      <c r="N65" t="s">
+        <v>298</v>
+      </c>
+      <c r="O65" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>299</v>
+      </c>
+      <c r="B66" t="s">
+        <v>300</v>
+      </c>
+      <c r="C66" t="n">
+        <v>191</v>
+      </c>
+      <c r="D66"/>
+      <c r="E66" t="s">
+        <v>74</v>
+      </c>
+      <c r="F66" t="s">
+        <v>301</v>
+      </c>
+      <c r="G66" t="s">
+        <v>56</v>
+      </c>
+      <c r="H66" t="n">
+        <v>67</v>
+      </c>
+      <c r="I66" t="s">
+        <v>29</v>
+      </c>
+      <c r="J66" t="s">
+        <v>30</v>
+      </c>
+      <c r="K66" t="s">
+        <v>60</v>
+      </c>
+      <c r="L66" t="s">
+        <v>32</v>
+      </c>
+      <c r="M66" t="s">
+        <v>286</v>
+      </c>
+      <c r="N66" t="s">
+        <v>9</v>
+      </c>
+      <c r="O66" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>302</v>
+      </c>
+      <c r="B67" t="s">
+        <v>303</v>
+      </c>
+      <c r="C67" t="n">
+        <v>183</v>
+      </c>
+      <c r="D67" t="n">
+        <v>79</v>
+      </c>
+      <c r="E67" t="s">
+        <v>74</v>
+      </c>
+      <c r="F67" t="s">
+        <v>301</v>
+      </c>
+      <c r="G67" t="s">
+        <v>56</v>
+      </c>
+      <c r="H67" t="n">
+        <v>66</v>
+      </c>
+      <c r="I67" t="s">
+        <v>29</v>
+      </c>
+      <c r="J67" t="s">
+        <v>30</v>
+      </c>
+      <c r="K67" t="s">
+        <v>304</v>
+      </c>
+      <c r="L67" t="s">
+        <v>32</v>
+      </c>
+      <c r="M67" t="s">
+        <v>276</v>
+      </c>
+      <c r="N67" t="s">
+        <v>9</v>
+      </c>
+      <c r="O67" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>305</v>
+      </c>
+      <c r="B68" t="s">
+        <v>306</v>
+      </c>
+      <c r="C68" t="n">
+        <v>168</v>
+      </c>
+      <c r="D68" t="n">
+        <v>55</v>
+      </c>
+      <c r="E68" t="s">
+        <v>307</v>
+      </c>
+      <c r="F68" t="s">
+        <v>308</v>
+      </c>
+      <c r="G68" t="s">
+        <v>39</v>
+      </c>
+      <c r="H68"/>
+      <c r="I68" t="s">
+        <v>58</v>
+      </c>
+      <c r="J68" t="s">
+        <v>59</v>
+      </c>
+      <c r="K68" t="s">
+        <v>309</v>
+      </c>
+      <c r="L68" t="s">
+        <v>310</v>
+      </c>
+      <c r="M68" t="s">
+        <v>276</v>
+      </c>
+      <c r="N68" t="s">
+        <v>311</v>
+      </c>
+      <c r="O68" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>312</v>
+      </c>
+      <c r="B69" t="s">
+        <v>313</v>
+      </c>
+      <c r="C69" t="n">
+        <v>198</v>
+      </c>
+      <c r="D69" t="n">
+        <v>102</v>
+      </c>
+      <c r="E69" t="s">
+        <v>40</v>
+      </c>
+      <c r="F69" t="s">
+        <v>56</v>
+      </c>
+      <c r="G69" t="s">
+        <v>39</v>
+      </c>
+      <c r="H69"/>
+      <c r="I69" t="s">
+        <v>29</v>
+      </c>
+      <c r="J69" t="s">
+        <v>30</v>
+      </c>
+      <c r="K69" t="s">
+        <v>314</v>
+      </c>
+      <c r="L69" t="s">
+        <v>315</v>
+      </c>
+      <c r="M69" t="s">
+        <v>276</v>
+      </c>
+      <c r="N69" t="s">
+        <v>9</v>
+      </c>
+      <c r="O69" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>316</v>
+      </c>
+      <c r="B70" t="s">
+        <v>317</v>
+      </c>
+      <c r="C70" t="n">
+        <v>229</v>
+      </c>
+      <c r="D70" t="n">
+        <v>88</v>
+      </c>
+      <c r="E70" t="s">
+        <v>40</v>
+      </c>
+      <c r="F70" t="s">
+        <v>131</v>
+      </c>
+      <c r="G70" t="s">
+        <v>74</v>
+      </c>
+      <c r="H70"/>
+      <c r="I70" t="s">
+        <v>29</v>
+      </c>
+      <c r="J70" t="s">
+        <v>30</v>
+      </c>
+      <c r="K70" t="s">
+        <v>135</v>
+      </c>
+      <c r="L70" t="s">
+        <v>318</v>
+      </c>
+      <c r="M70" t="s">
+        <v>276</v>
+      </c>
+      <c r="N70" t="s">
+        <v>9</v>
+      </c>
+      <c r="O70" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>319</v>
+      </c>
+      <c r="B71" t="s">
+        <v>320</v>
+      </c>
+      <c r="C71" t="n">
+        <v>213</v>
+      </c>
+      <c r="D71"/>
+      <c r="E71" t="s">
+        <v>40</v>
+      </c>
+      <c r="F71" t="s">
+        <v>131</v>
+      </c>
+      <c r="G71" t="s">
+        <v>74</v>
+      </c>
+      <c r="H71"/>
+      <c r="I71" t="s">
+        <v>58</v>
+      </c>
+      <c r="J71" t="s">
+        <v>59</v>
+      </c>
+      <c r="K71" t="s">
+        <v>135</v>
+      </c>
+      <c r="L71" t="s">
+        <v>318</v>
+      </c>
+      <c r="M71" t="s">
+        <v>276</v>
+      </c>
+      <c r="N71" t="s">
+        <v>9</v>
+      </c>
+      <c r="O71" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>321</v>
+      </c>
+      <c r="B72" t="s">
+        <v>322</v>
+      </c>
+      <c r="C72" t="n">
+        <v>167</v>
+      </c>
+      <c r="D72"/>
+      <c r="E72" t="s">
+        <v>51</v>
+      </c>
+      <c r="F72" t="s">
+        <v>27</v>
+      </c>
+      <c r="G72" t="s">
+        <v>28</v>
+      </c>
+      <c r="H72"/>
+      <c r="I72" t="s">
+        <v>58</v>
+      </c>
+      <c r="J72" t="s">
+        <v>59</v>
+      </c>
+      <c r="K72" t="s">
+        <v>187</v>
+      </c>
+      <c r="L72" t="s">
+        <v>32</v>
+      </c>
+      <c r="M72" t="s">
+        <v>276</v>
+      </c>
+      <c r="N72" t="s">
+        <v>9</v>
+      </c>
+      <c r="O72" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>323</v>
+      </c>
+      <c r="B73" t="s">
+        <v>324</v>
+      </c>
+      <c r="C73" t="n">
+        <v>79</v>
+      </c>
+      <c r="D73" t="n">
+        <v>15</v>
+      </c>
+      <c r="E73" t="s">
+        <v>40</v>
+      </c>
+      <c r="F73" t="s">
+        <v>325</v>
+      </c>
+      <c r="G73" t="s">
+        <v>95</v>
+      </c>
+      <c r="H73"/>
+      <c r="I73" t="s">
+        <v>29</v>
+      </c>
+      <c r="J73" t="s">
+        <v>30</v>
+      </c>
+      <c r="K73" t="s">
+        <v>326</v>
+      </c>
+      <c r="L73" t="s">
+        <v>327</v>
+      </c>
+      <c r="M73" t="s">
+        <v>179</v>
+      </c>
+      <c r="N73" t="s">
+        <v>9</v>
+      </c>
+      <c r="O73" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>328</v>
+      </c>
+      <c r="B74" t="s">
+        <v>329</v>
+      </c>
+      <c r="C74" t="n">
+        <v>96</v>
+      </c>
+      <c r="D74"/>
+      <c r="E74" t="s">
+        <v>40</v>
+      </c>
+      <c r="F74" t="s">
+        <v>330</v>
+      </c>
+      <c r="G74" t="s">
+        <v>331</v>
+      </c>
+      <c r="H74"/>
+      <c r="I74" t="s">
+        <v>40</v>
+      </c>
+      <c r="J74" t="s">
+        <v>59</v>
+      </c>
+      <c r="K74"/>
+      <c r="L74" t="s">
+        <v>41</v>
+      </c>
+      <c r="M74" t="s">
+        <v>286</v>
+      </c>
+      <c r="N74" t="s">
+        <v>9</v>
+      </c>
+      <c r="O74" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>332</v>
+      </c>
+      <c r="B75" t="s">
+        <v>333</v>
+      </c>
+      <c r="C75" t="n">
+        <v>193</v>
+      </c>
+      <c r="D75" t="n">
+        <v>48</v>
+      </c>
+      <c r="E75" t="s">
+        <v>40</v>
+      </c>
+      <c r="F75" t="s">
+        <v>334</v>
+      </c>
+      <c r="G75" t="s">
+        <v>95</v>
+      </c>
+      <c r="H75"/>
+      <c r="I75" t="s">
+        <v>29</v>
+      </c>
+      <c r="J75" t="s">
+        <v>30</v>
+      </c>
+      <c r="K75" t="s">
+        <v>335</v>
+      </c>
+      <c r="L75" t="s">
+        <v>336</v>
+      </c>
+      <c r="M75" t="s">
+        <v>276</v>
+      </c>
+      <c r="N75" t="s">
+        <v>9</v>
+      </c>
+      <c r="O75" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>337</v>
+      </c>
+      <c r="B76" t="s">
+        <v>338</v>
+      </c>
+      <c r="C76" t="n">
+        <v>191</v>
+      </c>
+      <c r="D76"/>
+      <c r="E76" t="s">
+        <v>40</v>
+      </c>
+      <c r="F76" t="s">
+        <v>131</v>
+      </c>
+      <c r="G76" t="s">
+        <v>38</v>
+      </c>
+      <c r="H76"/>
+      <c r="I76" t="s">
+        <v>29</v>
+      </c>
+      <c r="J76" t="s">
+        <v>30</v>
+      </c>
+      <c r="K76" t="s">
+        <v>339</v>
+      </c>
+      <c r="L76" t="s">
+        <v>340</v>
+      </c>
+      <c r="M76" t="s">
+        <v>276</v>
+      </c>
+      <c r="N76" t="s">
+        <v>9</v>
+      </c>
+      <c r="O76" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>341</v>
+      </c>
+      <c r="B77" t="s">
+        <v>342</v>
+      </c>
+      <c r="C77" t="n">
+        <v>178</v>
+      </c>
+      <c r="D77" t="n">
+        <v>57</v>
+      </c>
+      <c r="E77" t="s">
+        <v>40</v>
+      </c>
+      <c r="F77" t="s">
+        <v>343</v>
+      </c>
+      <c r="G77" t="s">
+        <v>74</v>
+      </c>
+      <c r="H77"/>
+      <c r="I77" t="s">
+        <v>58</v>
+      </c>
+      <c r="J77" t="s">
+        <v>59</v>
+      </c>
+      <c r="K77" t="s">
+        <v>344</v>
+      </c>
+      <c r="L77" t="s">
+        <v>345</v>
+      </c>
+      <c r="M77" t="s">
+        <v>286</v>
+      </c>
+      <c r="N77" t="s">
+        <v>9</v>
+      </c>
+      <c r="O77" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>346</v>
+      </c>
+      <c r="B78" t="s">
+        <v>347</v>
+      </c>
+      <c r="C78" t="n">
+        <v>216</v>
+      </c>
+      <c r="D78" t="n">
+        <v>159</v>
+      </c>
+      <c r="E78" t="s">
+        <v>40</v>
+      </c>
+      <c r="F78" t="s">
+        <v>348</v>
+      </c>
+      <c r="G78" t="s">
+        <v>349</v>
+      </c>
+      <c r="H78"/>
+      <c r="I78" t="s">
+        <v>29</v>
+      </c>
+      <c r="J78" t="s">
+        <v>30</v>
+      </c>
+      <c r="K78" t="s">
+        <v>350</v>
+      </c>
+      <c r="L78" t="s">
+        <v>351</v>
+      </c>
+      <c r="M78" t="s">
+        <v>352</v>
+      </c>
+      <c r="N78" t="s">
+        <v>353</v>
+      </c>
+      <c r="O78" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>355</v>
+      </c>
+      <c r="B79" t="s">
+        <v>356</v>
+      </c>
+      <c r="C79" t="n">
+        <v>234</v>
+      </c>
+      <c r="D79" t="n">
+        <v>136</v>
+      </c>
+      <c r="E79" t="s">
+        <v>56</v>
+      </c>
+      <c r="F79" t="s">
+        <v>56</v>
+      </c>
+      <c r="G79" t="s">
+        <v>28</v>
+      </c>
+      <c r="H79"/>
+      <c r="I79" t="s">
+        <v>29</v>
+      </c>
+      <c r="J79" t="s">
+        <v>30</v>
+      </c>
+      <c r="K79" t="s">
+        <v>96</v>
+      </c>
+      <c r="L79" t="s">
+        <v>97</v>
+      </c>
+      <c r="M79" t="s">
+        <v>352</v>
+      </c>
+      <c r="N79" t="s">
+        <v>9</v>
+      </c>
+      <c r="O79" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>357</v>
+      </c>
+      <c r="B80" t="s">
+        <v>358</v>
+      </c>
+      <c r="C80" t="n">
+        <v>188</v>
+      </c>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>56</v>
+      </c>
+      <c r="F80" t="s">
+        <v>57</v>
+      </c>
+      <c r="G80" t="s">
+        <v>56</v>
+      </c>
+      <c r="H80"/>
+      <c r="I80" t="s">
+        <v>29</v>
+      </c>
+      <c r="J80" t="s">
+        <v>30</v>
+      </c>
+      <c r="K80" t="s">
+        <v>60</v>
+      </c>
+      <c r="L80" t="s">
+        <v>32</v>
+      </c>
+      <c r="M80" t="s">
+        <v>92</v>
+      </c>
+      <c r="N80" t="s">
+        <v>9</v>
+      </c>
+      <c r="O80" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>359</v>
+      </c>
+      <c r="B81" t="s">
+        <v>360</v>
+      </c>
+      <c r="C81" t="n">
+        <v>178</v>
+      </c>
+      <c r="D81" t="n">
+        <v>48</v>
+      </c>
+      <c r="E81" t="s">
+        <v>40</v>
+      </c>
+      <c r="F81" t="s">
+        <v>132</v>
+      </c>
+      <c r="G81" t="s">
+        <v>51</v>
+      </c>
+      <c r="H81"/>
+      <c r="I81"/>
+      <c r="J81"/>
+      <c r="K81" t="s">
+        <v>361</v>
+      </c>
+      <c r="L81"/>
+      <c r="M81" t="s">
+        <v>286</v>
+      </c>
+      <c r="N81" t="s">
+        <v>9</v>
+      </c>
+      <c r="O81" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>362</v>
+      </c>
+      <c r="B82" t="s">
+        <v>363</v>
+      </c>
+      <c r="C82" t="n">
+        <v>206</v>
+      </c>
+      <c r="D82" t="n">
+        <v>80</v>
+      </c>
+      <c r="E82" t="s">
+        <v>40</v>
+      </c>
+      <c r="F82" t="s">
+        <v>131</v>
+      </c>
+      <c r="G82" t="s">
+        <v>74</v>
+      </c>
+      <c r="H82"/>
+      <c r="I82" t="s">
+        <v>29</v>
+      </c>
+      <c r="J82" t="s">
+        <v>30</v>
+      </c>
+      <c r="K82" t="s">
+        <v>364</v>
+      </c>
+      <c r="L82" t="s">
+        <v>365</v>
+      </c>
+      <c r="M82" t="s">
+        <v>352</v>
+      </c>
+      <c r="N82" t="s">
+        <v>9</v>
+      </c>
+      <c r="O82" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>366</v>
+      </c>
+      <c r="B83" t="s">
+        <v>367</v>
+      </c>
+      <c r="C83"/>
+      <c r="D83"/>
+      <c r="E83" t="s">
+        <v>74</v>
+      </c>
+      <c r="F83" t="s">
+        <v>148</v>
+      </c>
+      <c r="G83" t="s">
+        <v>148</v>
+      </c>
+      <c r="H83"/>
+      <c r="I83" t="s">
+        <v>29</v>
+      </c>
+      <c r="J83" t="s">
+        <v>30</v>
+      </c>
+      <c r="K83"/>
+      <c r="L83" t="s">
+        <v>32</v>
+      </c>
+      <c r="M83" t="s">
+        <v>368</v>
+      </c>
+      <c r="N83" t="s">
+        <v>9</v>
+      </c>
+      <c r="O83" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>369</v>
+      </c>
+      <c r="B84" t="s">
+        <v>370</v>
+      </c>
+      <c r="C84"/>
+      <c r="D84"/>
+      <c r="E84" t="s">
+        <v>56</v>
+      </c>
+      <c r="F84" t="s">
+        <v>57</v>
+      </c>
+      <c r="G84" t="s">
+        <v>119</v>
+      </c>
+      <c r="H84"/>
+      <c r="I84" t="s">
+        <v>58</v>
+      </c>
+      <c r="J84" t="s">
+        <v>59</v>
+      </c>
+      <c r="K84"/>
+      <c r="L84" t="s">
+        <v>32</v>
+      </c>
+      <c r="M84" t="s">
+        <v>368</v>
+      </c>
+      <c r="N84" t="s">
+        <v>9</v>
+      </c>
+      <c r="O84" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>371</v>
+      </c>
+      <c r="B85" t="s">
+        <v>372</v>
+      </c>
+      <c r="C85"/>
+      <c r="D85"/>
+      <c r="E85" t="s">
+        <v>56</v>
+      </c>
+      <c r="F85" t="s">
+        <v>57</v>
+      </c>
+      <c r="G85" t="s">
+        <v>56</v>
+      </c>
+      <c r="H85"/>
+      <c r="I85" t="s">
+        <v>29</v>
+      </c>
+      <c r="J85" t="s">
+        <v>30</v>
+      </c>
+      <c r="K85"/>
+      <c r="L85" t="s">
+        <v>32</v>
+      </c>
+      <c r="M85" t="s">
+        <v>368</v>
+      </c>
+      <c r="N85" t="s">
+        <v>9</v>
+      </c>
+      <c r="O85" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>374</v>
+      </c>
+      <c r="B86" t="s">
+        <v>375</v>
+      </c>
+      <c r="C86"/>
+      <c r="D86"/>
+      <c r="E86" t="s">
+        <v>40</v>
+      </c>
+      <c r="F86" t="s">
+        <v>40</v>
+      </c>
+      <c r="G86" t="s">
+        <v>74</v>
+      </c>
+      <c r="H86"/>
+      <c r="I86" t="s">
+        <v>40</v>
+      </c>
+      <c r="J86" t="s">
+        <v>30</v>
+      </c>
+      <c r="K86"/>
+      <c r="L86" t="s">
+        <v>41</v>
+      </c>
+      <c r="M86" t="s">
+        <v>368</v>
+      </c>
+      <c r="N86" t="s">
+        <v>9</v>
+      </c>
+      <c r="O86" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>376</v>
+      </c>
+      <c r="B87" t="s">
+        <v>377</v>
+      </c>
+      <c r="C87"/>
+      <c r="D87"/>
+      <c r="E87" t="s">
+        <v>95</v>
+      </c>
+      <c r="F87" t="s">
+        <v>95</v>
+      </c>
+      <c r="G87" t="s">
+        <v>95</v>
+      </c>
+      <c r="H87"/>
+      <c r="I87"/>
+      <c r="J87"/>
+      <c r="K87"/>
+      <c r="L87"/>
+      <c r="M87" t="s">
+        <v>368</v>
+      </c>
+      <c r="N87" t="s">
+        <v>9</v>
+      </c>
+      <c r="O87" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>378</v>
+      </c>
+      <c r="B88" t="s">
+        <v>379</v>
+      </c>
+      <c r="C88" t="n">
+        <v>165</v>
+      </c>
+      <c r="D88" t="n">
+        <v>45</v>
+      </c>
+      <c r="E88" t="s">
+        <v>56</v>
+      </c>
+      <c r="F88" t="s">
+        <v>57</v>
+      </c>
+      <c r="G88" t="s">
+        <v>56</v>
+      </c>
+      <c r="H88" t="n">
+        <v>46</v>
+      </c>
+      <c r="I88" t="s">
+        <v>58</v>
+      </c>
+      <c r="J88" t="s">
+        <v>59</v>
+      </c>
+      <c r="K88" t="s">
+        <v>47</v>
+      </c>
+      <c r="L88" t="s">
+        <v>32</v>
+      </c>
+      <c r="M88" t="s">
+        <v>85</v>
+      </c>
+      <c r="N88" t="s">
+        <v>9</v>
+      </c>
+      <c r="O88" t="s">
+        <v>380</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>

--- a/others/openxlsx_workbook.xlsx
+++ b/others/openxlsx_workbook.xlsx
@@ -1168,8 +1168,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+  </numFmts>
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1177,16 +1179,31 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF2C0E72"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF078"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1194,12 +1211,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1494,22 +1521,23 @@
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
+      <c r="F1" s="1"/>
+      <c r="G1" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>382</v>
       </c>
     </row>
@@ -1520,12 +1548,13 @@
       <c r="C2" t="n">
         <v>1610</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2" s="2" t="n">
         <v>4358.75776397516</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2" s="2" t="n">
         <v>7017600</v>
       </c>
+      <c r="G2" s="3"/>
       <c r="H2" t="str">
         <f>G2-E2</f>
       </c>
@@ -1537,12 +1566,13 @@
       <c r="C3" t="n">
         <v>4906</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3" s="2" t="n">
         <v>3928.86445169181</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3" s="2" t="n">
         <v>19275009</v>
       </c>
+      <c r="G3" s="3"/>
       <c r="H3" t="str">
         <f>G3-E3</f>
       </c>
@@ -1554,12 +1584,13 @@
       <c r="C4" t="n">
         <v>12082</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4" s="2" t="n">
         <v>3981.75989074657</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4" s="2" t="n">
         <v>48107623</v>
       </c>
+      <c r="G4" s="3"/>
       <c r="H4" t="str">
         <f>G4-E4</f>
       </c>
@@ -1571,12 +1602,13 @@
       <c r="C5" t="n">
         <v>13791</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5" s="2" t="n">
         <v>4584.25770429991</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5" s="2" t="n">
         <v>63221498</v>
       </c>
+      <c r="G5" s="3"/>
       <c r="H5" t="str">
         <f>G5-E5</f>
       </c>
@@ -1588,12 +1620,13 @@
       <c r="C6" t="n">
         <v>21551</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6" s="2" t="n">
         <v>3457.5419702102</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6" s="2" t="n">
         <v>74513487</v>
       </c>
+      <c r="G6" s="3"/>
       <c r="H6" t="str">
         <f>G6-E6</f>
       </c>

--- a/others/openxlsx_workbook.xlsx
+++ b/others/openxlsx_workbook.xlsx
@@ -1222,9 +1222,7 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
@@ -1516,9 +1514,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true">
+      <pane ySplit="1" xSplit="2" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <cols>
+    <col min="1" max="1" width="3.71" hidden="0" customWidth="1"/>
+    <col min="2" max="2" width="9.71" hidden="0" customWidth="1"/>
+    <col min="3" max="3" width="5.71" hidden="0" customWidth="1"/>
+    <col min="4" max="4" width="15.24375" hidden="0" customWidth="1"/>
+    <col min="5" max="5" width="15.24375" hidden="0" customWidth="1"/>
+    <col min="6" max="6" width="3.71" hidden="0" customWidth="1"/>
+    <col min="7" max="7" width="15.24375" hidden="0" customWidth="1"/>
+    <col min="8" max="8" width="27.135" hidden="0" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="B1" s="1" t="s">

--- a/others/openxlsx_workbook.xlsx
+++ b/others/openxlsx_workbook.xlsx
@@ -1229,7 +1229,32 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF9C0006"/>
+        <name val="Calibri"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <name val="Calibri"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
 </styleSheet>
 </file>
 
@@ -1522,13 +1547,13 @@
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <cols>
     <col min="1" max="1" width="3.71" hidden="0" customWidth="1"/>
-    <col min="2" max="2" width="9.71" hidden="0" customWidth="1"/>
-    <col min="3" max="3" width="5.71" hidden="0" customWidth="1"/>
-    <col min="4" max="4" width="15.24375" hidden="0" customWidth="1"/>
-    <col min="5" max="5" width="15.24375" hidden="0" customWidth="1"/>
+    <col min="2" max="2" width="15.71" hidden="0" customWidth="1"/>
+    <col min="3" max="3" width="15.71" hidden="0" customWidth="1"/>
+    <col min="4" max="4" width="15.71" hidden="0" customWidth="1"/>
+    <col min="5" max="5" width="15.71" hidden="0" customWidth="1"/>
     <col min="6" max="6" width="3.71" hidden="0" customWidth="1"/>
-    <col min="7" max="7" width="15.24375" hidden="0" customWidth="1"/>
-    <col min="8" max="8" width="27.135" hidden="0" customWidth="1"/>
+    <col min="7" max="7" width="15.71" hidden="0" customWidth="1"/>
+    <col min="8" max="8" width="15.71" hidden="0" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1643,6 +1668,14 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="H2:H6">
+    <cfRule type="expression" dxfId="0" priority="2">
+      <formula>H2&lt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>H2&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
